--- a/data/meta_features.xlsx
+++ b/data/meta_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0cap_2\MacroMan\SystematicMacro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFAED11-5F9D-46E7-B23E-71933A6D379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1018206-54F2-4282-8153-6AE485320297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6675" windowWidth="38640" windowHeight="15840" xr2:uid="{E4BEE590-548E-4391-B7C5-3A1E584A560D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E4BEE590-548E-4391-B7C5-3A1E584A560D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>SOURCE</t>
   </si>
@@ -234,6 +234,45 @@
   </si>
   <si>
     <t>Copper_Price</t>
+  </si>
+  <si>
+    <t>RATEINF/CPI_USA</t>
+  </si>
+  <si>
+    <t>CPI_US</t>
+  </si>
+  <si>
+    <t>RATEINF/CPI_GBR</t>
+  </si>
+  <si>
+    <t>CPI_UK</t>
+  </si>
+  <si>
+    <t>RATEINF/CPI_ITA</t>
+  </si>
+  <si>
+    <t>CPI_IT</t>
+  </si>
+  <si>
+    <t>RATEINF/CPI_FRA</t>
+  </si>
+  <si>
+    <t>CPI_FR</t>
+  </si>
+  <si>
+    <t>RATEINF/CPI_EUR</t>
+  </si>
+  <si>
+    <t>RATEINF/CPI_DEU</t>
+  </si>
+  <si>
+    <t>CPI_EUR</t>
+  </si>
+  <si>
+    <t>CPI_GER</t>
+  </si>
+  <si>
+    <t>QUANDL</t>
   </si>
 </sst>
 </file>
@@ -596,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4D7372-E104-42F0-9C68-C06F66EB84FD}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,6 +1227,144 @@
         <v>60</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/meta_features.xlsx
+++ b/data/meta_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0cap_2\MacroMan\SystematicMacro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1018206-54F2-4282-8153-6AE485320297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FA956-34D9-43F8-8D3C-EFB7C9A38326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E4BEE590-548E-4391-B7C5-3A1E584A560D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
   <si>
     <t>SOURCE</t>
   </si>
@@ -273,6 +273,48 @@
   </si>
   <si>
     <t>QUANDL</t>
+  </si>
+  <si>
+    <t>ML/EMHYY</t>
+  </si>
+  <si>
+    <t>EM_HY_YIELD</t>
+  </si>
+  <si>
+    <t>ML/AAAEY</t>
+  </si>
+  <si>
+    <t>US_IG_YIELD</t>
+  </si>
+  <si>
+    <t>ML/BBBEY</t>
+  </si>
+  <si>
+    <t>US_CORP_YIELD</t>
+  </si>
+  <si>
+    <t>ML/EMCTRI</t>
+  </si>
+  <si>
+    <t>EM_CORP_RET</t>
+  </si>
+  <si>
+    <t>ML/USTRI</t>
+  </si>
+  <si>
+    <t>US_HY_YIELD</t>
+  </si>
+  <si>
+    <t>ML/EMHGY</t>
+  </si>
+  <si>
+    <t>EM_IG_YIELD</t>
+  </si>
+  <si>
+    <t>ML/EMHG</t>
+  </si>
+  <si>
+    <t>EMEA_CORP_YIELD</t>
   </si>
 </sst>
 </file>
@@ -635,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4D7372-E104-42F0-9C68-C06F66EB84FD}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A31:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,6 +1407,146 @@
         <v>60</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/meta_features.xlsx
+++ b/data/meta_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0cap_2\MacroMan\SystematicMacro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55FA956-34D9-43F8-8D3C-EFB7C9A38326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F04398-7262-489D-86CA-D1A05711533F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E4BEE590-548E-4391-B7C5-3A1E584A560D}"/>
+    <workbookView xWindow="28680" yWindow="-6675" windowWidth="38640" windowHeight="15840" xr2:uid="{E4BEE590-548E-4391-B7C5-3A1E584A560D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="150">
   <si>
     <t>SOURCE</t>
   </si>
@@ -315,6 +315,177 @@
   </si>
   <si>
     <t>EMEA_CORP_YIELD</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>ECBDFR</t>
+  </si>
+  <si>
+    <t>ECB_Rate</t>
+  </si>
+  <si>
+    <t>RBCABIS</t>
+  </si>
+  <si>
+    <t>REER_CAD</t>
+  </si>
+  <si>
+    <t>RBNZBIS</t>
+  </si>
+  <si>
+    <t>REER_NZD</t>
+  </si>
+  <si>
+    <t>RBESBIS</t>
+  </si>
+  <si>
+    <t>REER_ESPANIA</t>
+  </si>
+  <si>
+    <t>RBFRBIS</t>
+  </si>
+  <si>
+    <t>REER_FR</t>
+  </si>
+  <si>
+    <t>RBDEBIS</t>
+  </si>
+  <si>
+    <t>REER_DE</t>
+  </si>
+  <si>
+    <t>RBAUBIS</t>
+  </si>
+  <si>
+    <t>REER_AUD</t>
+  </si>
+  <si>
+    <t>RBGBBIS</t>
+  </si>
+  <si>
+    <t>REER_UK</t>
+  </si>
+  <si>
+    <t>RBXMBIS</t>
+  </si>
+  <si>
+    <t>RBUSBIS</t>
+  </si>
+  <si>
+    <t>REER_US</t>
+  </si>
+  <si>
+    <t>AUSCPALTT01IXOBSAQ</t>
+  </si>
+  <si>
+    <t>CPI_AUD</t>
+  </si>
+  <si>
+    <t>CPALCY01CAM661N</t>
+  </si>
+  <si>
+    <t>CPI_CAD</t>
+  </si>
+  <si>
+    <t>NZLCPIALLQINMEI</t>
+  </si>
+  <si>
+    <t>CPI_NZD</t>
+  </si>
+  <si>
+    <t>UNRATE</t>
+  </si>
+  <si>
+    <t>UNEM_US</t>
+  </si>
+  <si>
+    <t>AURUKM</t>
+  </si>
+  <si>
+    <t>UNEM_UK</t>
+  </si>
+  <si>
+    <t>LRHUTTTTAUM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_AUD</t>
+  </si>
+  <si>
+    <t>LRHUTTTTDEM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_DE</t>
+  </si>
+  <si>
+    <t>LRHUTTTTGBM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_UK</t>
+  </si>
+  <si>
+    <t>LRHUTTTTITM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_IT</t>
+  </si>
+  <si>
+    <t>LRHUTTTTFRM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_FR</t>
+  </si>
+  <si>
+    <t>LRHUTTTTUSM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_US</t>
+  </si>
+  <si>
+    <t>LRHUTTTTNZQ156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_NZD</t>
+  </si>
+  <si>
+    <t>LRHUTTTTCAM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_CAD</t>
+  </si>
+  <si>
+    <t>LRHUTTTTEUM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_EU</t>
+  </si>
+  <si>
+    <t>LRHUTTTTESM156S</t>
+  </si>
+  <si>
+    <t>HARM_UNEM_ESPANIA</t>
+  </si>
+  <si>
+    <t>WM2NS</t>
+  </si>
+  <si>
+    <t>M2_US</t>
+  </si>
+  <si>
+    <t>MAM2A2CAM189S</t>
+  </si>
+  <si>
+    <t>M2_CAD</t>
+  </si>
+  <si>
+    <t>MYAGM2EZM196N</t>
+  </si>
+  <si>
+    <t>M2_EU</t>
+  </si>
+  <si>
+    <t>REER_EU</t>
   </si>
 </sst>
 </file>
@@ -677,13 +848,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4D7372-E104-42F0-9C68-C06F66EB84FD}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A38" sqref="A31:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1545,6 +1720,647 @@
       </c>
       <c r="H38" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
